--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo_SearchStatus.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo_SearchStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595AABE-4D15-4D1E-81FD-558471298B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524D843-8660-4A1F-9E67-118FF942B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="28800" windowHeight="15345" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchAbility" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,11 +115,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,13 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF9C77-F5E5-4253-B080-E4A4AF2B33F0}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -446,7 +447,7 @@
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,63 +460,21 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
